--- a/biology/Médecine/1790_en_santé_et_médecine/1790_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1790_en_santé_et_médecine/1790_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1790_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1790_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1790 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1790_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1790_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La loi du 18 août 1790 abroge toutes les corporations enseignantes, supprime la Faculté de médecine de Paris et l'enseignement médical au demeurant peu actifs au cours des années précédentes à Paris[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La loi du 18 août 1790 abroge toutes les corporations enseignantes, supprime la Faculté de médecine de Paris et l'enseignement médical au demeurant peu actifs au cours des années précédentes à Paris.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1790_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1790_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,14 +555,16 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>26 janvier : Claude François Lallemand (mort en 1854), chirurgien français.
 2 mars : Philippe-Charles Schmerling (mort en 1836), médecin et préhistorien belge.
 17 mars : Léon Rostan (mort en 1866),  médecin français.
-14 août : Joseph-Marie Dubrueil (mort en 1852), chirurgien de la Marine et professeur d'anatomie à Montpellier[2].
+14 août : Joseph-Marie Dubrueil (mort en 1852), chirurgien de la Marine et professeur d'anatomie à Montpellier.
 10 novembre : Jean René Constant Quoy (mort en 1869), chirurgien de marine, anatomiste, ornithologue et zoologiste français.
-18 décembre : Jules Cloquet (mort en 1883), anatomiste et chirurgien français[3].</t>
+18 décembre : Jules Cloquet (mort en 1883), anatomiste et chirurgien français.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1790_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1790_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>6 mai : Johannes Gessner (né en 1709), médecin et naturaliste suisse.
 10 juillet : Peter Jonas Bergius (né en 1730), médecin et botaniste suédois.</t>
